--- a/res.xlsx
+++ b/res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Used data sorted out by taxonomy group</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Weighted Emp. Cumul. Prob.</t>
   </si>
   <si>
-    <t>s2</t>
+    <t>Daphnia pulex</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>invertebrates</t>
   </si>
   <si>
-    <t>s3</t>
+    <t>Daphnia magna</t>
   </si>
   <si>
-    <t>T2</t>
+    <t>Neanthes arenaceodentata</t>
   </si>
   <si>
-    <t>s1</t>
+    <t>Mercenaria mercenaria</t>
   </si>
   <si>
-    <t>s4</t>
+    <t>Ophryotrocha diadema</t>
   </si>
   <si>
     <t>Distribution: Weighted Triangular + Confidence limits by weighted bootstrap and Bias Correction</t>
+  </si>
+  <si>
+    <t>Callinectes sapidus</t>
+  </si>
+  <si>
+    <t>Gammarus duebeni</t>
   </si>
   <si>
     <t>HC</t>
@@ -115,6 +121,12 @@
     <t>Centile 2.5%</t>
   </si>
   <si>
+    <t>Physa heterostropha</t>
+  </si>
+  <si>
+    <t>Porcellio scaber</t>
+  </si>
+  <si>
     <t>Centile 5.0%</t>
   </si>
   <si>
@@ -122,6 +134,27 @@
   </si>
   <si>
     <t>Centile 97.5%</t>
+  </si>
+  <si>
+    <t>Artemia salina</t>
+  </si>
+  <si>
+    <t>Armadillidium vulgare</t>
+  </si>
+  <si>
+    <t>Palaemonetes pugio</t>
+  </si>
+  <si>
+    <t>Uca pugnax</t>
+  </si>
+  <si>
+    <t>Dahlbominus  sp</t>
+  </si>
+  <si>
+    <t>Eisenia fetida</t>
+  </si>
+  <si>
+    <t>Corophium volutator</t>
   </si>
 </sst>
 </file>
@@ -457,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,29 +610,29 @@
         <v>8</v>
       </c>
       <c r="U3" t="n">
-        <v>199.9999999999998</v>
+        <v>730318.9999999991</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.9953271028037387</v>
       </c>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
         <v>9</v>
       </c>
       <c r="Z3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1</v>
+        <v>0.073197</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.25</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0.01616043613707165</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -628,29 +661,29 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>149.9999999999999</v>
+        <v>410744.9999999995</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8666666666666668</v>
+        <v>0.9849104361370721</v>
       </c>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="s">
         <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.999999999999998</v>
+        <v>1.0068</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.125</v>
+        <v>0.003125</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.325</v>
+        <v>0.01928543613707165</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -673,35 +706,35 @@
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T5" t="s">
         <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>100</v>
+        <v>315461.9999999993</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0078125</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7833333333333334</v>
+        <v>0.9744937694704054</v>
       </c>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="s">
         <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>1.4407</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.125</v>
+        <v>0.003125</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.45</v>
+        <v>0.02241043613707165</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -724,35 +757,35 @@
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T6" t="s">
         <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>287702.9999999995</v>
       </c>
       <c r="V6" t="n">
-        <v>0.125</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W6" t="n">
-        <v>0.45</v>
+        <v>0.9666812694704054</v>
       </c>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
         <v>12</v>
       </c>
       <c r="Z6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.99999999999998</v>
+        <v>35.78599999999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0625</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5125</v>
+        <v>0.02588265835929387</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -775,35 +808,35 @@
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T7" t="s">
         <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>5.999999999999998</v>
+        <v>277633.9999999995</v>
       </c>
       <c r="V7" t="n">
-        <v>0.125</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W7" t="n">
-        <v>0.325</v>
+        <v>0.9562646028037388</v>
       </c>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.99999999999996</v>
+        <v>133.7499999999998</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0625</v>
+        <v>0.003125</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.575</v>
+        <v>0.02900765835929387</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -828,569 +861,5423 @@
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
-        <v>74.99999999999993</v>
+        <v>275155.9999999997</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0625</v>
+        <v>0.0125</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7</v>
+        <v>0.9458479361370722</v>
       </c>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.99999999999997</v>
+        <v>650.9208039999997</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0625</v>
+        <v>0.015625</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6375</v>
+        <v>0.04463265835929387</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>59.99999999999997</v>
+        <v>229833.9999999994</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0625</v>
+        <v>0.0125</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6375</v>
+        <v>0.9333479361370721</v>
       </c>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.99999999999993</v>
+        <v>714.5398288999996</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0625</v>
+        <v>0.015625</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7</v>
+        <v>0.06025765835929387</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02699164528183807</v>
+        <v>50.44186077442517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06857400760377907</v>
+        <v>113.8160067429896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.200917649069484</v>
+        <v>290.8472949615405</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4149591444509078</v>
+        <v>547.7438288002502</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7384944264133319</v>
+        <v>905.8769411376485</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88794484104356</v>
+        <v>2055.172734014217</v>
       </c>
       <c r="H10" t="n">
-        <v>8.909763993121476</v>
+        <v>7961.411954976409</v>
       </c>
       <c r="I10" t="n">
-        <v>42.04778269329336</v>
+        <v>30841.24232858903</v>
       </c>
       <c r="J10" t="n">
-        <v>107.4942363460617</v>
+        <v>69969.85731554242</v>
       </c>
       <c r="K10" t="n">
-        <v>191.3053260175003</v>
+        <v>115718.4745571201</v>
       </c>
       <c r="L10" t="n">
-        <v>395.1066259274733</v>
+        <v>217929.0693599978</v>
       </c>
       <c r="M10" t="n">
-        <v>1157.638253721502</v>
+        <v>556899.5269704922</v>
       </c>
       <c r="N10" t="n">
-        <v>2941.05429973693</v>
+        <v>1256576.964919938</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P10" t="n">
-        <v>8.909763993121476</v>
+        <v>7961.411954976409</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.27713150860966</v>
+        <v>13.22972173209419</v>
       </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>49.99999999999996</v>
+        <v>182717.9999999999</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0625</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W10" t="n">
-        <v>0.575</v>
+        <v>0.9208479361370722</v>
       </c>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="s">
         <v>8</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>718.9960847999994</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.015625</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7833333333333334</v>
+        <v>0.07588265835929386</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>6.201558102354434</v>
+        <v>2.559290031779848</v>
       </c>
       <c r="C11" t="n">
-        <v>5.289154632380153</v>
+        <v>2.273365870591065</v>
       </c>
       <c r="D11" t="n">
-        <v>4.420028593531043</v>
+        <v>1.985841682762736</v>
       </c>
       <c r="E11" t="n">
-        <v>3.92840441053937</v>
+        <v>1.81505685608932</v>
       </c>
       <c r="F11" t="n">
-        <v>3.585579219239354</v>
+        <v>1.691842143870376</v>
       </c>
       <c r="G11" t="n">
-        <v>3.108687236773912</v>
+        <v>1.514416251074016</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5158587534508</v>
+        <v>1.29211120946589</v>
       </c>
       <c r="I11" t="n">
-        <v>2.145293559091204</v>
+        <v>1.224527644849392</v>
       </c>
       <c r="J11" t="n">
-        <v>2.029476498689462</v>
+        <v>1.292631552459659</v>
       </c>
       <c r="K11" t="n">
-        <v>2.000820303812423</v>
+        <v>1.363221242308356</v>
       </c>
       <c r="L11" t="n">
-        <v>2.011747441156269</v>
+        <v>1.472940073486299</v>
       </c>
       <c r="M11" t="n">
-        <v>2.123052905011806</v>
+        <v>1.669818850056203</v>
       </c>
       <c r="N11" t="n">
-        <v>2.307742395765794</v>
+        <v>1.871268382473745</v>
       </c>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P11" t="n">
-        <v>14.4656544052692</v>
+        <v>12.60711555476418</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.36500896789672</v>
+        <v>109.5821680202657</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" t="n">
-        <v>44.99999999999998</v>
+        <v>178582.9999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0625</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5125</v>
+        <v>0.9104312694704055</v>
       </c>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="s">
         <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>149.9999999999999</v>
+        <v>722.8276768999991</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.015625</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8666666666666668</v>
+        <v>0.09150765835929386</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0007016786458903869</v>
+        <v>7.096066610754388</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000816699726359162</v>
+        <v>21.00209546272253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0009626466942947548</v>
+        <v>69.07646324077359</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001093679300864623</v>
+        <v>153.9571888993609</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001189237636190307</v>
+        <v>299.8239850708557</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001297056363612579</v>
+        <v>894.5404803415428</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001271073818001935</v>
+        <v>4713.905649465486</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0009642373168508195</v>
+        <v>20466.73871282141</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000828943376147803</v>
+        <v>41807.85165349356</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0007835038611042339</v>
+        <v>63138.24966786694</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007155046738990728</v>
+        <v>101487.5058237617</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005937681349415347</v>
+        <v>206437.9419586897</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0005048035738813077</v>
+        <v>380706.8698266411</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P12" t="n">
-        <v>0.000141342934051974</v>
+        <v>851.9939223402017</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0006909432281706972</v>
+        <v>0.01217548326629231</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="T12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1</v>
+        <v>177795.9999999998</v>
       </c>
       <c r="V12" t="n">
-        <v>0.25</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2</v>
+        <v>0.9000146028037389</v>
       </c>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s">
         <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>199.9999999999998</v>
+        <v>748.5599999999996</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.1123409916926272</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001784420673097653</v>
+        <v>10.10402113749864</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002145400082658715</v>
+        <v>27.69607062007132</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002625149835090648</v>
+        <v>87.50146067213601</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003058123328224682</v>
+        <v>188.037498558242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003388853025240541</v>
+        <v>348.3043291691101</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003593879429402112</v>
+        <v>971.5298031763974</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003319397851632287</v>
+        <v>5145.32275629334</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002590755779844039</v>
+        <v>21666.25232366338</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002265899270377215</v>
+        <v>45241.12625704035</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002164443860134032</v>
+        <v>68417.79296713643</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002003052060630509</v>
+        <v>112658.3617761035</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00169533466515262</v>
+        <v>242424.6216362597</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001466170418135429</v>
+        <v>459708.3834819635</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0003794311501545021</v>
+        <v>945.1821577577185</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001825856421077408</v>
+        <v>0.01415470230398636</v>
       </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>170806</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.8895979361370723</v>
+      </c>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>750.4899999999996</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1158132139148494</v>
+      </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01043346244274767</v>
+        <v>225.6575134636092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01228178079968445</v>
+        <v>416.2413695233791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0159961994431138</v>
+        <v>838.4710820243786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0175907554841399</v>
+        <v>1351.679701638263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01712600357400052</v>
+        <v>1968.12705430113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01783471300423454</v>
+        <v>3813.440453635915</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01814690356489043</v>
+        <v>12145.89852677416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01772980582371853</v>
+        <v>43188.64021216847</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01873509243635434</v>
+        <v>106565.2417764303</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01988845840971721</v>
+        <v>191279.2143253468</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02053945960130307</v>
+        <v>411336.7169863478</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02191072397411058</v>
+        <v>1312065.430702387</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02203583865864637</v>
+        <v>3697835.984460949</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003124645584324995</v>
+        <v>449752.8376737849</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01723960150806047</v>
+        <v>3624.005286656417</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
-      <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
-      <c r="V14" t="s"/>
-      <c r="W14" t="s"/>
+      <c r="S14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>158746.9999999997</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.8770979361370722</v>
+      </c>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
-      <c r="Z14" t="s"/>
-      <c r="AA14" t="s"/>
-      <c r="AB14" t="s"/>
-      <c r="AC14" t="s"/>
+      <c r="Y14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>764.0299999999996</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1192854361370717</v>
+      </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="n">
+        <v>292.6778111140152</v>
+      </c>
+      <c r="C15" t="n">
+        <v>530.7464079724365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1018.38916737331</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1655.656020162027</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2372.269142189435</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4264.242409280171</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12956.7036382359</v>
+      </c>
+      <c r="I15" t="n">
+        <v>44897.32752652139</v>
+      </c>
+      <c r="J15" t="n">
+        <v>112509.4855250122</v>
+      </c>
+      <c r="K15" t="n">
+        <v>211011.8154182836</v>
+      </c>
+      <c r="L15" t="n">
+        <v>463401.6663801415</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1482621.51905109</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4190571.955619165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="n">
+        <v>561245.8378845219</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4961.433466698427</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>96474.77729999984</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.8645979361370721</v>
+      </c>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1019.399999999999</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.140118769470405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s"/>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>89773.99999999981</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.8614729361370722</v>
+      </c>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1041.753116999999</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.1442854361370716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s"/>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.02161284906750999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02544000341827223</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.03319059413274902</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.03711740912451739</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.03783633556985591</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.03888009985939866</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0374791543331062</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.03741590445983113</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.03907517376722347</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.0411871659047233</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.04242054704060946</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.04525264612992055</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.04592061068740614</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>69502.99999999987</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8536604361370722</v>
+      </c>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1261.7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1477576583592939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s"/>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s">
         <v>35</v>
       </c>
-      <c r="P15" t="n">
-        <v>0.006500887725942111</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0356088923354349</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
+      <c r="T18" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>65805.99999999997</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.8432437694704056</v>
+      </c>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1316.719139999999</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1508826583592939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s"/>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" t="n">
+        <v>63409.99999999993</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.832827102803739</v>
+      </c>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1336.399999999998</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.1543548805815161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s"/>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>60805.99999999993</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.825014602803739</v>
+      </c>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1651.599999999998</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1574798805815161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s"/>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" t="n">
+        <v>57644.60849999999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8145979361370723</v>
+      </c>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1672.199999999998</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.1609521028037384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s"/>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" t="n">
+        <v>57606.18951999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.8104312694704056</v>
+      </c>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1804.499999999999</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.1644243250259606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s"/>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
+      <c r="F23" t="s"/>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>56499.60063000001</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.8062646028037389</v>
+      </c>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1808.095195999999</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.1675493250259606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s"/>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
+      <c r="F24" t="s"/>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s">
+        <v>40</v>
+      </c>
+      <c r="T24" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" t="n">
+        <v>55145.39340999996</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.7854312694704055</v>
+      </c>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2000.799999999999</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1710215472481828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s"/>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
+      <c r="F25" t="s"/>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>54106.20050999994</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.7812646028037388</v>
+      </c>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2026.668362000001</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.1814382139148495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s"/>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
+      <c r="F26" t="s"/>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s"/>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>53783.99999999997</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.777097936137072</v>
+      </c>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2093.571068999997</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1918548805815161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s"/>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" t="n">
+        <v>48353.59931999992</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.7666812694704054</v>
+      </c>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2164.106930999998</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.2022715472481828</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s"/>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
+      <c r="F28" t="s"/>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>47195.07884999994</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7625146028037387</v>
+      </c>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2270.521489999996</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.2053965472481828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s"/>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
+      <c r="F29" t="s"/>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>45129.34098999995</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.758347936137072</v>
+      </c>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2333.863469999997</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.2158132139148495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" t="s"/>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
+      <c r="F30" t="s"/>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>44566.99999999993</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.7541812694704052</v>
+      </c>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2359.899999999999</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.2192854361370717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" t="s"/>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>44513.63881999996</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.7463687694704052</v>
+      </c>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2603.599999999999</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.240118769470405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" t="s"/>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s"/>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="s"/>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" t="n">
+        <v>38850.99562999993</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.7255354361370718</v>
+      </c>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2728.914605999997</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.2505354361370717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" t="s"/>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s"/>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="s"/>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>36552.99999999991</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7213687694704052</v>
+      </c>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2861.586163999998</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.2547021028037383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" t="s"/>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="s"/>
+      <c r="E34" t="s"/>
+      <c r="F34" t="s"/>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="s"/>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>34967.41282999993</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.7135562694704052</v>
+      </c>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3030.299999999998</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.3172021028037383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" t="s"/>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s"/>
+      <c r="E35" t="s"/>
+      <c r="F35" t="s"/>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="s"/>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" t="n">
+        <v>33725.99999999998</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.7104312694704051</v>
+      </c>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3369.099999999994</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.3297021028037384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" t="s"/>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="s"/>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>27849.17633999999</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7026187694704051</v>
+      </c>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3661.799999999997</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.3331743250259606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" t="s"/>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="s"/>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s"/>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="s"/>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" t="s">
+        <v>8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>25324.12307999995</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.6984521028037385</v>
+      </c>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3670.700000000001</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.3366465472481828</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" t="s"/>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="s"/>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s"/>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="s"/>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" t="s">
+        <v>8</v>
+      </c>
+      <c r="U38" t="n">
+        <v>24411.99999999995</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6953271028037386</v>
+      </c>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3735.999999999999</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.340118769470405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" t="s"/>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="s"/>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s"/>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="s"/>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s">
+        <v>8</v>
+      </c>
+      <c r="U39" t="n">
+        <v>23283.44037999997</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6922021028037385</v>
+      </c>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3850.899999999992</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.3505354361370717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" t="s"/>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s"/>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" t="s">
+        <v>8</v>
+      </c>
+      <c r="U40" t="n">
+        <v>18759.99999999999</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.6880354361370719</v>
+      </c>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3965.33579</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.3536604361370717</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" t="s"/>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s"/>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" t="n">
+        <v>15839.44468999999</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.6672021028037385</v>
+      </c>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4087.499999999993</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.357132658359294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" t="s"/>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s"/>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s">
+        <v>43</v>
+      </c>
+      <c r="T42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>15495.09766999998</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6463687694704051</v>
+      </c>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4149.8</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.360257658359294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" t="s"/>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s"/>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" t="n">
+        <v>15457.99999999999</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6255354361370717</v>
+      </c>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4157.360831999995</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.3644243250259606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" t="s"/>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s"/>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" t="n">
+        <v>14480.99999999997</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6177229361370717</v>
+      </c>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4255.622328999994</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.3685909916926273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" t="s"/>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s"/>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s">
+        <v>42</v>
+      </c>
+      <c r="T45" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" t="n">
+        <v>14190.31708000001</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6099104361370717</v>
+      </c>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4797.726219999997</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.3717159916926273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" t="s"/>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="s"/>
+      <c r="E46" t="s"/>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s"/>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s">
+        <v>8</v>
+      </c>
+      <c r="U46" t="n">
+        <v>13613.27268999999</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.5994937694704051</v>
+      </c>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5424.099999999994</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.3842159916926273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" t="s"/>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="s"/>
+      <c r="E47" t="s"/>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s"/>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s">
+        <v>12</v>
+      </c>
+      <c r="T47" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" t="n">
+        <v>12390</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.5786604361370717</v>
+      </c>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5832.192678</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.3873409916926273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" t="s"/>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="s"/>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s"/>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="s"/>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" t="n">
+        <v>12223.63192999999</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.5751882139148495</v>
+      </c>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5832.192678</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.3904659916926274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" t="s"/>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="s"/>
+      <c r="E49" t="s"/>
+      <c r="F49" t="s"/>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="s"/>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" t="n">
+        <v>11600.99999999999</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.5710215472481829</v>
+      </c>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6043.300000000001</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.3939382139148496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" t="s"/>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="s"/>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="s"/>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s">
+        <v>43</v>
+      </c>
+      <c r="T50" t="s">
+        <v>8</v>
+      </c>
+      <c r="U50" t="n">
+        <v>11545.33322999999</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.5678965472481828</v>
+      </c>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6291.399999999996</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.4147715472481829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" t="s"/>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="s"/>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="s"/>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" t="s">
+        <v>8</v>
+      </c>
+      <c r="U51" t="n">
+        <v>11476.00000000001</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.5470632139148496</v>
+      </c>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6351.099999999989</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.4272715472481828</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" t="s"/>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s"/>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="s"/>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s">
+        <v>14</v>
+      </c>
+      <c r="T52" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>11293.85218999997</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.5439382139148495</v>
+      </c>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6471.314643999988</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.4897715472481828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" t="s"/>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="s"/>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s">
+        <v>12</v>
+      </c>
+      <c r="T53" t="s">
+        <v>8</v>
+      </c>
+      <c r="U53" t="n">
+        <v>11178.00000000001</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.5314382139148496</v>
+      </c>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7364.39999999999</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.4932437694704051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" t="s"/>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="s"/>
+      <c r="E54" t="s"/>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="s"/>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" t="n">
+        <v>9600.772676999992</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.5279659916926274</v>
+      </c>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>7699.899999999993</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.4967159916926273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" t="s"/>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="s"/>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="s"/>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s">
+        <v>10</v>
+      </c>
+      <c r="T55" t="s">
+        <v>8</v>
+      </c>
+      <c r="U55" t="n">
+        <v>9518.899999999987</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.5248409916926273</v>
+      </c>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>7808.799999999994</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.5092159916926273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" t="s"/>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="s"/>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s"/>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="s"/>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s">
+        <v>45</v>
+      </c>
+      <c r="T56" t="s">
+        <v>8</v>
+      </c>
+      <c r="U56" t="n">
+        <v>9297.69999999999</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.5217159916926273</v>
+      </c>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>9297.69999999999</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.5217159916926273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" t="s"/>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="s"/>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s"/>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="s"/>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s">
+        <v>45</v>
+      </c>
+      <c r="T57" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" t="n">
+        <v>7808.799999999994</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.5092159916926273</v>
+      </c>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>9518.899999999987</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.5248409916926273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" t="s"/>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="s"/>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="s"/>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T58" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" t="n">
+        <v>7699.899999999993</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.4967159916926273</v>
+      </c>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>9600.772676999992</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.5279659916926274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" t="s"/>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s"/>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s"/>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s">
+        <v>12</v>
+      </c>
+      <c r="T59" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" t="n">
+        <v>7364.39999999999</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.4932437694704051</v>
+      </c>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>11178.00000000001</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.5314382139148496</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" t="s"/>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="s"/>
+      <c r="E60" t="s"/>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s"/>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s">
+        <v>46</v>
+      </c>
+      <c r="T60" t="s">
+        <v>8</v>
+      </c>
+      <c r="U60" t="n">
+        <v>6471.314643999988</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.4897715472481828</v>
+      </c>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>11293.85218999997</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.5439382139148495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" t="s"/>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="s"/>
+      <c r="E61" t="s"/>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s"/>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s">
+        <v>8</v>
+      </c>
+      <c r="U61" t="n">
+        <v>6351.099999999989</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.4272715472481828</v>
+      </c>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>11476.00000000001</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.5470632139148496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" t="s"/>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s"/>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s"/>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" t="n">
+        <v>6291.399999999996</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.4147715472481829</v>
+      </c>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>11545.33322999999</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.5678965472481828</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" t="s"/>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="s"/>
+      <c r="E63" t="s"/>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s"/>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s">
+        <v>12</v>
+      </c>
+      <c r="T63" t="s">
+        <v>8</v>
+      </c>
+      <c r="U63" t="n">
+        <v>6043.300000000001</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.3939382139148496</v>
+      </c>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>11600.99999999999</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.5710215472481829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" t="s"/>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="s"/>
+      <c r="E64" t="s"/>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s"/>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s">
+        <v>10</v>
+      </c>
+      <c r="T64" t="s">
+        <v>8</v>
+      </c>
+      <c r="U64" t="n">
+        <v>5832.192678</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.3873409916926273</v>
+      </c>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>12223.63192999999</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.5751882139148495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" t="s"/>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="s"/>
+      <c r="E65" t="s"/>
+      <c r="F65" t="s"/>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s"/>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="s"/>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s">
+        <v>10</v>
+      </c>
+      <c r="T65" t="s">
+        <v>8</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5832.192678</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.3904659916926274</v>
+      </c>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>12390</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.5786604361370717</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" t="s"/>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="s"/>
+      <c r="E66" t="s"/>
+      <c r="F66" t="s"/>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s"/>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="s"/>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" t="n">
+        <v>5424.099999999994</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.3842159916926273</v>
+      </c>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>13613.27268999999</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.5994937694704051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" t="s"/>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="s"/>
+      <c r="E67" t="s"/>
+      <c r="F67" t="s"/>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s"/>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="s"/>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s">
+        <v>10</v>
+      </c>
+      <c r="T67" t="s">
+        <v>8</v>
+      </c>
+      <c r="U67" t="n">
+        <v>4797.726219999997</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.3717159916926273</v>
+      </c>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>14190.31708000001</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.6099104361370717</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" t="s"/>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="s"/>
+      <c r="E68" t="s"/>
+      <c r="F68" t="s"/>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s"/>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="s"/>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s">
+        <v>8</v>
+      </c>
+      <c r="U68" t="n">
+        <v>4255.622328999994</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.3685909916926273</v>
+      </c>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>14480.99999999997</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.6177229361370717</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" t="s"/>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="s"/>
+      <c r="E69" t="s"/>
+      <c r="F69" t="s"/>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s"/>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="s"/>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s">
+        <v>8</v>
+      </c>
+      <c r="U69" t="n">
+        <v>4157.360831999995</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.3644243250259606</v>
+      </c>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>15457.99999999999</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.6255354361370717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" t="s"/>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="s"/>
+      <c r="E70" t="s"/>
+      <c r="F70" t="s"/>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s"/>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="s"/>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s">
+        <v>10</v>
+      </c>
+      <c r="T70" t="s">
+        <v>8</v>
+      </c>
+      <c r="U70" t="n">
+        <v>4149.8</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.360257658359294</v>
+      </c>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>15495.09766999998</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.6463687694704051</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" t="s"/>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="s"/>
+      <c r="E71" t="s"/>
+      <c r="F71" t="s"/>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s"/>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="s"/>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s">
+        <v>12</v>
+      </c>
+      <c r="T71" t="s">
+        <v>8</v>
+      </c>
+      <c r="U71" t="n">
+        <v>4087.499999999993</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.357132658359294</v>
+      </c>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>15839.44468999999</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.6672021028037385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" t="s"/>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="s"/>
+      <c r="E72" t="s"/>
+      <c r="F72" t="s"/>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s"/>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="s"/>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3965.33579</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.3536604361370717</v>
+      </c>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>18759.99999999999</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.6880354361370719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" t="s"/>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="s"/>
+      <c r="E73" t="s"/>
+      <c r="F73" t="s"/>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s"/>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="s"/>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" t="s">
+        <v>8</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3850.899999999992</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.3505354361370717</v>
+      </c>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>23283.44037999997</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.6922021028037385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" t="s"/>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="s"/>
+      <c r="E74" t="s"/>
+      <c r="F74" t="s"/>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s"/>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="s"/>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s">
+        <v>12</v>
+      </c>
+      <c r="T74" t="s">
+        <v>8</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3735.999999999999</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.340118769470405</v>
+      </c>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>24411.99999999995</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.6953271028037386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" t="s"/>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="s"/>
+      <c r="E75" t="s"/>
+      <c r="F75" t="s"/>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s"/>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="s"/>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s">
+        <v>12</v>
+      </c>
+      <c r="T75" t="s">
+        <v>8</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3670.700000000001</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.3366465472481828</v>
+      </c>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>25324.12307999995</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.6984521028037385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" t="s"/>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="s"/>
+      <c r="E76" t="s"/>
+      <c r="F76" t="s"/>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s"/>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="s"/>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s">
+        <v>12</v>
+      </c>
+      <c r="T76" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3661.799999999997</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.3331743250259606</v>
+      </c>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>27849.17633999999</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0.7026187694704051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" t="s"/>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="s"/>
+      <c r="E77" t="s"/>
+      <c r="F77" t="s"/>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s"/>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="s"/>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s">
+        <v>8</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3369.099999999994</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.3297021028037384</v>
+      </c>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>33725.99999999998</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.7104312694704051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" t="s"/>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="s"/>
+      <c r="E78" t="s"/>
+      <c r="F78" t="s"/>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s"/>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="s"/>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s">
+        <v>44</v>
+      </c>
+      <c r="T78" t="s">
+        <v>8</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3030.299999999998</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.3172021028037383</v>
+      </c>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>34967.41282999993</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.7135562694704052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" t="s"/>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="s"/>
+      <c r="E79" t="s"/>
+      <c r="F79" t="s"/>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s"/>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s">
+        <v>8</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2861.586163999998</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.2547021028037383</v>
+      </c>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>36552.99999999991</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.7213687694704052</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" t="s"/>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="s"/>
+      <c r="E80" t="s"/>
+      <c r="F80" t="s"/>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s"/>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="s"/>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s">
+        <v>42</v>
+      </c>
+      <c r="T80" t="s">
+        <v>8</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2728.914605999997</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.2505354361370717</v>
+      </c>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>38850.99562999993</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.7255354361370718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" t="s"/>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="s"/>
+      <c r="E81" t="s"/>
+      <c r="F81" t="s"/>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s"/>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="s"/>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s">
+        <v>36</v>
+      </c>
+      <c r="T81" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2603.599999999999</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.240118769470405</v>
+      </c>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>44513.63881999996</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.7463687694704052</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" t="s"/>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="s"/>
+      <c r="E82" t="s"/>
+      <c r="F82" t="s"/>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s"/>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82" t="s">
+        <v>8</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2359.899999999999</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.2192854361370717</v>
+      </c>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>44566.99999999993</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.7541812694704052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" t="s"/>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="s"/>
+      <c r="E83" t="s"/>
+      <c r="F83" t="s"/>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s"/>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="s"/>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s">
+        <v>42</v>
+      </c>
+      <c r="T83" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2333.863469999997</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.2158132139148495</v>
+      </c>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>45129.34098999995</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.758347936137072</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" t="s"/>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="s"/>
+      <c r="E84" t="s"/>
+      <c r="F84" t="s"/>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s"/>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="s"/>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s">
+        <v>10</v>
+      </c>
+      <c r="T84" t="s">
+        <v>8</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2270.521489999996</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.2053965472481828</v>
+      </c>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>47195.07884999994</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.7625146028037387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" t="s"/>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="s"/>
+      <c r="E85" t="s"/>
+      <c r="F85" t="s"/>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s"/>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="s"/>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s">
+        <v>42</v>
+      </c>
+      <c r="T85" t="s">
+        <v>8</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2164.106930999998</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.2022715472481828</v>
+      </c>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>48353.59931999992</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.7666812694704054</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" t="s"/>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="s"/>
+      <c r="E86" t="s"/>
+      <c r="F86" t="s"/>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s"/>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s">
+        <v>42</v>
+      </c>
+      <c r="T86" t="s">
+        <v>8</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2093.571068999997</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.1918548805815161</v>
+      </c>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>53783.99999999997</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.777097936137072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" t="s"/>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="s"/>
+      <c r="E87" t="s"/>
+      <c r="F87" t="s"/>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s"/>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="s"/>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s">
+        <v>42</v>
+      </c>
+      <c r="T87" t="s">
+        <v>8</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2026.668362000001</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.1814382139148495</v>
+      </c>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>54106.20050999994</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.7812646028037388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" t="s"/>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="s"/>
+      <c r="E88" t="s"/>
+      <c r="F88" t="s"/>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s"/>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="s"/>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s">
+        <v>12</v>
+      </c>
+      <c r="T88" t="s">
+        <v>8</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2000.799999999999</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.1710215472481828</v>
+      </c>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>55145.39340999996</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.7854312694704055</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" t="s"/>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="s"/>
+      <c r="E89" t="s"/>
+      <c r="F89" t="s"/>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s"/>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="s"/>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s">
+        <v>10</v>
+      </c>
+      <c r="T89" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1808.095195999999</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.1675493250259606</v>
+      </c>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>56499.60063000001</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.8062646028037389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" t="s"/>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="s"/>
+      <c r="E90" t="s"/>
+      <c r="F90" t="s"/>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s"/>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="s"/>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s">
+        <v>12</v>
+      </c>
+      <c r="T90" t="s">
+        <v>8</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1804.499999999999</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.1644243250259606</v>
+      </c>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>57606.18951999999</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0.8104312694704056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" t="s"/>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="s"/>
+      <c r="E91" t="s"/>
+      <c r="F91" t="s"/>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s"/>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="s"/>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s">
+        <v>12</v>
+      </c>
+      <c r="T91" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1672.199999999998</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.1609521028037384</v>
+      </c>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>57644.60849999999</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.8145979361370723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" t="s"/>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="s"/>
+      <c r="E92" t="s"/>
+      <c r="F92" t="s"/>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s"/>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="s"/>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s">
+        <v>10</v>
+      </c>
+      <c r="T92" t="s">
+        <v>8</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1651.599999999998</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.1574798805815161</v>
+      </c>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>60805.99999999993</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0.825014602803739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" t="s"/>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="s"/>
+      <c r="E93" t="s"/>
+      <c r="F93" t="s"/>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s"/>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="s"/>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s">
+        <v>12</v>
+      </c>
+      <c r="T93" t="s">
+        <v>8</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1336.399999999998</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.1543548805815161</v>
+      </c>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>63409.99999999993</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0.832827102803739</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" t="s"/>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="s"/>
+      <c r="E94" t="s"/>
+      <c r="F94" t="s"/>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s"/>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="s"/>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1316.719139999999</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.1508826583592939</v>
+      </c>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>65805.99999999997</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0.8432437694704056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" t="s"/>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="s"/>
+      <c r="E95" t="s"/>
+      <c r="F95" t="s"/>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s"/>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="s"/>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s">
+        <v>12</v>
+      </c>
+      <c r="T95" t="s">
+        <v>8</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1261.7</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.1477576583592939</v>
+      </c>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>69502.99999999987</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.8536604361370722</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" t="s"/>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="s"/>
+      <c r="E96" t="s"/>
+      <c r="F96" t="s"/>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s"/>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="s"/>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s">
+        <v>8</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1041.753116999999</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.1442854361370716</v>
+      </c>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>89773.99999999981</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.8614729361370722</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29">
+      <c r="A97" t="s"/>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="s"/>
+      <c r="E97" t="s"/>
+      <c r="F97" t="s"/>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s"/>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="s"/>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s">
+        <v>9</v>
+      </c>
+      <c r="T97" t="s">
+        <v>8</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1019.399999999999</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.140118769470405</v>
+      </c>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>96474.77729999984</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.8645979361370721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29">
+      <c r="A98" t="s"/>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="s"/>
+      <c r="E98" t="s"/>
+      <c r="F98" t="s"/>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s"/>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s"/>
+      <c r="M98" t="s"/>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s">
+        <v>12</v>
+      </c>
+      <c r="T98" t="s">
+        <v>8</v>
+      </c>
+      <c r="U98" t="n">
+        <v>764.0299999999996</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.1192854361370717</v>
+      </c>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>158746.9999999997</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.8770979361370722</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29">
+      <c r="A99" t="s"/>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="s"/>
+      <c r="E99" t="s"/>
+      <c r="F99" t="s"/>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s"/>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s"/>
+      <c r="M99" t="s"/>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s">
+        <v>12</v>
+      </c>
+      <c r="T99" t="s">
+        <v>8</v>
+      </c>
+      <c r="U99" t="n">
+        <v>750.4899999999996</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.1158132139148494</v>
+      </c>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>170806</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>0.8895979361370723</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29">
+      <c r="A100" t="s"/>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="s"/>
+      <c r="E100" t="s"/>
+      <c r="F100" t="s"/>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s"/>
+      <c r="K100" t="s"/>
+      <c r="L100" t="s"/>
+      <c r="M100" t="s"/>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s">
+        <v>36</v>
+      </c>
+      <c r="T100" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" t="n">
+        <v>748.5599999999996</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.1123409916926272</v>
+      </c>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>177795.9999999998</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0.9000146028037389</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29">
+      <c r="A101" t="s"/>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="s"/>
+      <c r="E101" t="s"/>
+      <c r="F101" t="s"/>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s"/>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s"/>
+      <c r="M101" t="s"/>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s">
+        <v>15</v>
+      </c>
+      <c r="T101" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" t="n">
+        <v>722.8276768999991</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.09150765835929386</v>
+      </c>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>178582.9999999999</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0.9104312694704055</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29">
+      <c r="A102" t="s"/>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="s"/>
+      <c r="E102" t="s"/>
+      <c r="F102" t="s"/>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s"/>
+      <c r="K102" t="s"/>
+      <c r="L102" t="s"/>
+      <c r="M102" t="s"/>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s">
+        <v>15</v>
+      </c>
+      <c r="T102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" t="n">
+        <v>718.9960847999994</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.07588265835929386</v>
+      </c>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>182717.9999999999</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.9208479361370722</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29">
+      <c r="A103" t="s"/>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="s"/>
+      <c r="E103" t="s"/>
+      <c r="F103" t="s"/>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s"/>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s"/>
+      <c r="M103" t="s"/>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s">
+        <v>15</v>
+      </c>
+      <c r="T103" t="s">
+        <v>8</v>
+      </c>
+      <c r="U103" t="n">
+        <v>714.5398288999996</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.06025765835929387</v>
+      </c>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>229833.9999999994</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0.9333479361370721</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29">
+      <c r="A104" t="s"/>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="s"/>
+      <c r="E104" t="s"/>
+      <c r="F104" t="s"/>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s"/>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="s"/>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s">
+        <v>15</v>
+      </c>
+      <c r="T104" t="s">
+        <v>8</v>
+      </c>
+      <c r="U104" t="n">
+        <v>650.9208039999997</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.015625</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.04463265835929387</v>
+      </c>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>275155.9999999997</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0.9458479361370722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29">
+      <c r="A105" t="s"/>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="s"/>
+      <c r="E105" t="s"/>
+      <c r="F105" t="s"/>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s"/>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="s"/>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s">
+        <v>10</v>
+      </c>
+      <c r="T105" t="s">
+        <v>8</v>
+      </c>
+      <c r="U105" t="n">
+        <v>133.7499999999998</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.02900765835929387</v>
+      </c>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>277633.9999999995</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>0.9562646028037388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29">
+      <c r="A106" t="s"/>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="s"/>
+      <c r="E106" t="s"/>
+      <c r="F106" t="s"/>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s"/>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="s"/>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s">
+        <v>12</v>
+      </c>
+      <c r="T106" t="s">
+        <v>8</v>
+      </c>
+      <c r="U106" t="n">
+        <v>35.78599999999999</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.003472222222222222</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.02588265835929387</v>
+      </c>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>287702.9999999995</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.9666812694704054</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29">
+      <c r="A107" t="s"/>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="s"/>
+      <c r="E107" t="s"/>
+      <c r="F107" t="s"/>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s"/>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s"/>
+      <c r="M107" t="s"/>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s">
+        <v>10</v>
+      </c>
+      <c r="T107" t="s">
+        <v>8</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.4407</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.02241043613707165</v>
+      </c>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>315461.9999999993</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0.0078125</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.9744937694704054</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" t="s"/>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="s"/>
+      <c r="E108" t="s"/>
+      <c r="F108" t="s"/>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s"/>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s"/>
+      <c r="M108" t="s"/>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s">
+        <v>10</v>
+      </c>
+      <c r="T108" t="s">
+        <v>8</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.0068</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.003125</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.01928543613707165</v>
+      </c>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>410744.9999999995</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.9849104361370721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" t="s"/>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="s"/>
+      <c r="E109" t="s"/>
+      <c r="F109" t="s"/>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s"/>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s"/>
+      <c r="M109" t="s"/>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s">
+        <v>9</v>
+      </c>
+      <c r="T109" t="s">
+        <v>8</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.073197</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.01616043613707165</v>
+      </c>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>730318.9999999991</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.9953271028037387</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/res.xlsx
+++ b/res.xlsx
@@ -1065,52 +1065,52 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>2.559290031779848</v>
+        <v>2.523952683481694</v>
       </c>
       <c r="C11" t="n">
-        <v>2.273365870591065</v>
+        <v>2.245557781762061</v>
       </c>
       <c r="D11" t="n">
-        <v>1.985841682762736</v>
+        <v>1.965292524346421</v>
       </c>
       <c r="E11" t="n">
-        <v>1.81505685608932</v>
+        <v>1.798699734995178</v>
       </c>
       <c r="F11" t="n">
-        <v>1.691842143870376</v>
+        <v>1.678489209171317</v>
       </c>
       <c r="G11" t="n">
-        <v>1.514416251074016</v>
+        <v>1.50549253076452</v>
       </c>
       <c r="H11" t="n">
-        <v>1.29211120946589</v>
+        <v>1.29005654150989</v>
       </c>
       <c r="I11" t="n">
-        <v>1.224527644849392</v>
+        <v>1.228425208407695</v>
       </c>
       <c r="J11" t="n">
-        <v>1.292631552459659</v>
+        <v>1.296715213156989</v>
       </c>
       <c r="K11" t="n">
-        <v>1.363221242308356</v>
+        <v>1.366467934507143</v>
       </c>
       <c r="L11" t="n">
-        <v>1.472940073486299</v>
+        <v>1.474669289784171</v>
       </c>
       <c r="M11" t="n">
-        <v>1.669818850056203</v>
+        <v>1.668651422839158</v>
       </c>
       <c r="N11" t="n">
-        <v>1.871268382473745</v>
+        <v>1.866958557192161</v>
       </c>
       <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="n">
-        <v>12.60711555476418</v>
+        <v>12.43528614073925</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.5821680202657</v>
+        <v>109.1068896340253</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s">
@@ -1150,52 +1150,52 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>7.096066610754388</v>
+        <v>8.636587370982896</v>
       </c>
       <c r="C12" t="n">
-        <v>21.00209546272253</v>
+        <v>24.51602330310273</v>
       </c>
       <c r="D12" t="n">
-        <v>69.07646324077359</v>
+        <v>82.10444858633001</v>
       </c>
       <c r="E12" t="n">
-        <v>153.9571888993609</v>
+        <v>182.3540481148718</v>
       </c>
       <c r="F12" t="n">
-        <v>299.8239850708557</v>
+        <v>337.667636511364</v>
       </c>
       <c r="G12" t="n">
-        <v>894.5404803415428</v>
+        <v>937.7923046339511</v>
       </c>
       <c r="H12" t="n">
-        <v>4713.905649465486</v>
+        <v>4783.045713271225</v>
       </c>
       <c r="I12" t="n">
-        <v>20466.73871282141</v>
+        <v>20657.72492187663</v>
       </c>
       <c r="J12" t="n">
-        <v>41807.85165349356</v>
+        <v>41559.42746431254</v>
       </c>
       <c r="K12" t="n">
-        <v>63138.24966786694</v>
+        <v>61482.02086622499</v>
       </c>
       <c r="L12" t="n">
-        <v>101487.5058237617</v>
+        <v>99227.79640890517</v>
       </c>
       <c r="M12" t="n">
-        <v>206437.9419586897</v>
+        <v>194008.5614032715</v>
       </c>
       <c r="N12" t="n">
-        <v>380706.8698266411</v>
+        <v>354829.3493756181</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
       </c>
       <c r="P12" t="n">
-        <v>851.9939223402017</v>
+        <v>763.3388887773664</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01217548326629231</v>
+        <v>0.01150516414986073</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s">
@@ -1235,52 +1235,52 @@
         <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>10.10402113749864</v>
+        <v>12.03155630896678</v>
       </c>
       <c r="C13" t="n">
-        <v>27.69607062007132</v>
+        <v>31.38551582130729</v>
       </c>
       <c r="D13" t="n">
-        <v>87.50146067213601</v>
+        <v>98.2360995451056</v>
       </c>
       <c r="E13" t="n">
-        <v>188.037498558242</v>
+        <v>210.7505610033742</v>
       </c>
       <c r="F13" t="n">
-        <v>348.3043291691101</v>
+        <v>389.6204369257978</v>
       </c>
       <c r="G13" t="n">
-        <v>971.5298031763974</v>
+        <v>1040.876859605055</v>
       </c>
       <c r="H13" t="n">
-        <v>5145.32275629334</v>
+        <v>5119.305215033213</v>
       </c>
       <c r="I13" t="n">
-        <v>21666.25232366338</v>
+        <v>21458.54452577989</v>
       </c>
       <c r="J13" t="n">
-        <v>45241.12625704035</v>
+        <v>45463.29572923431</v>
       </c>
       <c r="K13" t="n">
-        <v>68417.79296713643</v>
+        <v>67437.73694936236</v>
       </c>
       <c r="L13" t="n">
-        <v>112658.3617761035</v>
+        <v>110978.370606496</v>
       </c>
       <c r="M13" t="n">
-        <v>242424.6216362597</v>
+        <v>223139.2014001834</v>
       </c>
       <c r="N13" t="n">
-        <v>459708.3834819635</v>
+        <v>406937.2898310228</v>
       </c>
       <c r="O13" t="s">
         <v>37</v>
       </c>
       <c r="P13" t="n">
-        <v>945.1821577577185</v>
+        <v>847.2388740255942</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01415470230398636</v>
+        <v>0.01379329447799939</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s">
@@ -1320,52 +1320,52 @@
         <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>225.6575134636092</v>
+        <v>242.5139218281163</v>
       </c>
       <c r="C14" t="n">
-        <v>416.2413695233791</v>
+        <v>442.7104574874</v>
       </c>
       <c r="D14" t="n">
-        <v>838.4710820243786</v>
+        <v>877.6016863714352</v>
       </c>
       <c r="E14" t="n">
-        <v>1351.679701638263</v>
+        <v>1409.9812976542</v>
       </c>
       <c r="F14" t="n">
-        <v>1968.12705430113</v>
+        <v>2098.880186408528</v>
       </c>
       <c r="G14" t="n">
-        <v>3813.440453635915</v>
+        <v>4003.743022825235</v>
       </c>
       <c r="H14" t="n">
-        <v>12145.89852677416</v>
+        <v>11997.44703762381</v>
       </c>
       <c r="I14" t="n">
-        <v>43188.64021216847</v>
+        <v>42340.87620811316</v>
       </c>
       <c r="J14" t="n">
-        <v>106565.2417764303</v>
+        <v>103425.8569594839</v>
       </c>
       <c r="K14" t="n">
-        <v>191279.2143253468</v>
+        <v>185874.3606667948</v>
       </c>
       <c r="L14" t="n">
-        <v>411336.7169863478</v>
+        <v>391154.3001312229</v>
       </c>
       <c r="M14" t="n">
-        <v>1312065.430702387</v>
+        <v>1229864.895552056</v>
       </c>
       <c r="N14" t="n">
-        <v>3697835.984460949</v>
+        <v>3351690.146720767</v>
       </c>
       <c r="O14" t="s">
         <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>449752.8376737849</v>
+        <v>364884.3950483791</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.005286656417</v>
+        <v>3558.495710421128</v>
       </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s">
@@ -1405,52 +1405,52 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>292.6778111140152</v>
+        <v>311.2652658225011</v>
       </c>
       <c r="C15" t="n">
-        <v>530.7464079724365</v>
+        <v>546.4277184056085</v>
       </c>
       <c r="D15" t="n">
-        <v>1018.38916737331</v>
+        <v>1080.210352850189</v>
       </c>
       <c r="E15" t="n">
-        <v>1655.656020162027</v>
+        <v>1650.193297963018</v>
       </c>
       <c r="F15" t="n">
-        <v>2372.269142189435</v>
+        <v>2381.712108074881</v>
       </c>
       <c r="G15" t="n">
-        <v>4264.242409280171</v>
+        <v>4435.010143342875</v>
       </c>
       <c r="H15" t="n">
-        <v>12956.7036382359</v>
+        <v>12935.91721388257</v>
       </c>
       <c r="I15" t="n">
-        <v>44897.32752652139</v>
+        <v>45416.42741029997</v>
       </c>
       <c r="J15" t="n">
-        <v>112509.4855250122</v>
+        <v>112304.9867281014</v>
       </c>
       <c r="K15" t="n">
-        <v>211011.8154182836</v>
+        <v>203531.5091311389</v>
       </c>
       <c r="L15" t="n">
-        <v>463401.6663801415</v>
+        <v>444278.0369198282</v>
       </c>
       <c r="M15" t="n">
-        <v>1482621.51905109</v>
+        <v>1468811.455780063</v>
       </c>
       <c r="N15" t="n">
-        <v>4190571.955619165</v>
+        <v>3977200.433331154</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="n">
-        <v>561245.8378845219</v>
+        <v>447121.2054627783</v>
       </c>
       <c r="Q15" t="n">
-        <v>4961.433466698427</v>
+        <v>4446.481593383473</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s">

--- a/res.xlsx
+++ b/res.xlsx
@@ -1065,52 +1065,52 @@
         <v>33</v>
       </c>
       <c r="B11" t="n">
-        <v>2.523952683481694</v>
+        <v>2.456562955918035</v>
       </c>
       <c r="C11" t="n">
-        <v>2.245557781762061</v>
+        <v>2.19437524839901</v>
       </c>
       <c r="D11" t="n">
-        <v>1.965292524346421</v>
+        <v>1.929309426301781</v>
       </c>
       <c r="E11" t="n">
-        <v>1.798699734995178</v>
+        <v>1.771151378621231</v>
       </c>
       <c r="F11" t="n">
-        <v>1.678489209171317</v>
+        <v>1.656714689475387</v>
       </c>
       <c r="G11" t="n">
-        <v>1.50549253076452</v>
+        <v>1.491495282503209</v>
       </c>
       <c r="H11" t="n">
-        <v>1.29005654150989</v>
+        <v>1.284310394533257</v>
       </c>
       <c r="I11" t="n">
-        <v>1.228425208407695</v>
+        <v>1.221512320766259</v>
       </c>
       <c r="J11" t="n">
-        <v>1.296715213156989</v>
+        <v>1.284309112159226</v>
       </c>
       <c r="K11" t="n">
-        <v>1.366467934507143</v>
+        <v>1.349883082319397</v>
       </c>
       <c r="L11" t="n">
-        <v>1.474669289784171</v>
+        <v>1.45206771735443</v>
       </c>
       <c r="M11" t="n">
-        <v>1.668651422839158</v>
+        <v>1.635319667627088</v>
       </c>
       <c r="N11" t="n">
-        <v>1.866958557192161</v>
+        <v>1.822218474612457</v>
       </c>
       <c r="O11" t="s">
         <v>33</v>
       </c>
       <c r="P11" t="n">
-        <v>12.43528614073925</v>
+        <v>12.30642387490133</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.1068896340253</v>
+        <v>108.5025798185205</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s">
@@ -1150,52 +1150,52 @@
         <v>34</v>
       </c>
       <c r="B12" t="n">
-        <v>8.636587370982896</v>
+        <v>8.017715864205524</v>
       </c>
       <c r="C12" t="n">
-        <v>24.51602330310273</v>
+        <v>22.79975815571148</v>
       </c>
       <c r="D12" t="n">
-        <v>82.10444858633001</v>
+        <v>74.91494376403058</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3540481148718</v>
+        <v>169.8751889981022</v>
       </c>
       <c r="F12" t="n">
-        <v>337.667636511364</v>
+        <v>323.5070013396253</v>
       </c>
       <c r="G12" t="n">
-        <v>937.7923046339511</v>
+        <v>909.60275055444</v>
       </c>
       <c r="H12" t="n">
-        <v>4783.045713271225</v>
+        <v>4786.807581718066</v>
       </c>
       <c r="I12" t="n">
-        <v>20657.72492187663</v>
+        <v>20950.28860513512</v>
       </c>
       <c r="J12" t="n">
-        <v>41559.42746431254</v>
+        <v>42999.52299722662</v>
       </c>
       <c r="K12" t="n">
-        <v>61482.02086622499</v>
+        <v>64105.41848637789</v>
       </c>
       <c r="L12" t="n">
-        <v>99227.79640890517</v>
+        <v>104405.471529214</v>
       </c>
       <c r="M12" t="n">
-        <v>194008.5614032715</v>
+        <v>209799.0981969993</v>
       </c>
       <c r="N12" t="n">
-        <v>354829.3493756181</v>
+        <v>396908.5412955568</v>
       </c>
       <c r="O12" t="s">
         <v>34</v>
       </c>
       <c r="P12" t="n">
-        <v>763.3388887773664</v>
+        <v>755.0326324959477</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01150516414986073</v>
+        <v>0.0123243458632216</v>
       </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s">
@@ -1235,52 +1235,52 @@
         <v>37</v>
       </c>
       <c r="B13" t="n">
-        <v>12.03155630896678</v>
+        <v>10.92948232981785</v>
       </c>
       <c r="C13" t="n">
-        <v>31.38551582130729</v>
+        <v>29.79744920846311</v>
       </c>
       <c r="D13" t="n">
-        <v>98.2360995451056</v>
+        <v>96.40877207134318</v>
       </c>
       <c r="E13" t="n">
-        <v>210.7505610033742</v>
+        <v>206.6240388255761</v>
       </c>
       <c r="F13" t="n">
-        <v>389.6204369257978</v>
+        <v>381.1608749802875</v>
       </c>
       <c r="G13" t="n">
-        <v>1040.876859605055</v>
+        <v>1054.928922715712</v>
       </c>
       <c r="H13" t="n">
-        <v>5119.305215033213</v>
+        <v>5126.185448057211</v>
       </c>
       <c r="I13" t="n">
-        <v>21458.54452577989</v>
+        <v>22549.13486675487</v>
       </c>
       <c r="J13" t="n">
-        <v>45463.29572923431</v>
+        <v>47173.38963892015</v>
       </c>
       <c r="K13" t="n">
-        <v>67437.73694936236</v>
+        <v>70767.65919831787</v>
       </c>
       <c r="L13" t="n">
-        <v>110978.370606496</v>
+        <v>117352.8911064405</v>
       </c>
       <c r="M13" t="n">
-        <v>223139.2014001834</v>
+        <v>244032.1418783148</v>
       </c>
       <c r="N13" t="n">
-        <v>406937.2898310228</v>
+        <v>470579.0374273685</v>
       </c>
       <c r="O13" t="s">
         <v>37</v>
       </c>
       <c r="P13" t="n">
-        <v>847.2388740255942</v>
+        <v>834.3759748810188</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01379329447799939</v>
+        <v>0.01364721961043449</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s">
@@ -1320,52 +1320,52 @@
         <v>38</v>
       </c>
       <c r="B14" t="n">
-        <v>242.5139218281163</v>
+        <v>210.2416781845095</v>
       </c>
       <c r="C14" t="n">
-        <v>442.7104574874</v>
+        <v>392.9484143461237</v>
       </c>
       <c r="D14" t="n">
-        <v>877.6016863714352</v>
+        <v>813.5260624818053</v>
       </c>
       <c r="E14" t="n">
-        <v>1409.9812976542</v>
+        <v>1350.583747859673</v>
       </c>
       <c r="F14" t="n">
-        <v>2098.880186408528</v>
+        <v>2004.236308563269</v>
       </c>
       <c r="G14" t="n">
-        <v>4003.743022825235</v>
+        <v>3885.597291372204</v>
       </c>
       <c r="H14" t="n">
-        <v>11997.44703762381</v>
+        <v>11725.33977588181</v>
       </c>
       <c r="I14" t="n">
-        <v>42340.87620811316</v>
+        <v>43842.84805320212</v>
       </c>
       <c r="J14" t="n">
-        <v>103425.8569594839</v>
+        <v>106306.5703389645</v>
       </c>
       <c r="K14" t="n">
-        <v>185874.3606667948</v>
+        <v>187776.4635616026</v>
       </c>
       <c r="L14" t="n">
-        <v>391154.3001312229</v>
+        <v>399999.8604810955</v>
       </c>
       <c r="M14" t="n">
-        <v>1229864.895552056</v>
+        <v>1229583.098692825</v>
       </c>
       <c r="N14" t="n">
-        <v>3351690.146720767</v>
+        <v>3352198.553081083</v>
       </c>
       <c r="O14" t="s">
         <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>364884.3950483791</v>
+        <v>357225.9762336689</v>
       </c>
       <c r="Q14" t="n">
-        <v>3558.495710421128</v>
+        <v>3620.895275051425</v>
       </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s">
@@ -1405,52 +1405,52 @@
         <v>39</v>
       </c>
       <c r="B15" t="n">
-        <v>311.2652658225011</v>
+        <v>263.4849411850086</v>
       </c>
       <c r="C15" t="n">
-        <v>546.4277184056085</v>
+        <v>486.498976784299</v>
       </c>
       <c r="D15" t="n">
-        <v>1080.210352850189</v>
+        <v>964.3505987289286</v>
       </c>
       <c r="E15" t="n">
-        <v>1650.193297963018</v>
+        <v>1569.598203221606</v>
       </c>
       <c r="F15" t="n">
-        <v>2381.712108074881</v>
+        <v>2264.506397347969</v>
       </c>
       <c r="G15" t="n">
-        <v>4435.010143342875</v>
+        <v>4370.415073081558</v>
       </c>
       <c r="H15" t="n">
-        <v>12935.91721388257</v>
+        <v>12951.03975876778</v>
       </c>
       <c r="I15" t="n">
-        <v>45416.42741029997</v>
+        <v>46449.75731883464</v>
       </c>
       <c r="J15" t="n">
-        <v>112304.9867281014</v>
+        <v>115996.5245748017</v>
       </c>
       <c r="K15" t="n">
-        <v>203531.5091311389</v>
+        <v>212480.2347236348</v>
       </c>
       <c r="L15" t="n">
-        <v>444278.0369198282</v>
+        <v>455533.7624090513</v>
       </c>
       <c r="M15" t="n">
-        <v>1468811.455780063</v>
+        <v>1427513.066045994</v>
       </c>
       <c r="N15" t="n">
-        <v>3977200.433331154</v>
+        <v>3963156.854017044</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="n">
-        <v>447121.2054627783</v>
+        <v>428796.1457255174</v>
       </c>
       <c r="Q15" t="n">
-        <v>4446.481593383473</v>
+        <v>4341.762131528685</v>
       </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s">
